--- a/Derived_Data/UnitTest1_PCSOP.069_Metaboscape.xlsx
+++ b/Derived_Data/UnitTest1_PCSOP.069_Metaboscape.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jtpearce/Dropbox (Personal)/Development/npc-standard-project/Derived_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{9402C855-B8FF-634D-A006-815F0549EB9E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A30D084-2334-7940-BBBE-C6512EC338FA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="10360" yWindow="2480" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Data" sheetId="1" r:id="rId1"/>
@@ -482,8 +482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -623,6 +623,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -966,10 +972,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1324,11 +1331,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:EC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,350 +1781,350 @@
       <c r="P2" t="s">
         <v>135</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-      <c r="AF2">
-        <v>10</v>
-      </c>
-      <c r="AG2">
-        <v>10</v>
-      </c>
-      <c r="AH2">
-        <v>10</v>
-      </c>
-      <c r="AI2">
-        <v>10</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
-        <v>10</v>
-      </c>
-      <c r="AL2">
-        <v>10</v>
-      </c>
-      <c r="AM2">
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="3">
         <v>20</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="3">
         <v>20</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="3">
         <v>20</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <v>20</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <v>20</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3">
         <v>40</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="3">
         <v>40</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="3">
         <v>40</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="3">
         <v>60</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="3">
         <v>60</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="3">
         <v>60</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="3">
         <v>80</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="3">
         <v>80</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="3">
         <v>80</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="3">
         <v>80</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="3">
         <v>80</v>
       </c>
-      <c r="BC2">
-        <v>100</v>
-      </c>
-      <c r="BD2">
-        <v>100</v>
-      </c>
-      <c r="BE2">
-        <v>100</v>
-      </c>
-      <c r="BF2">
-        <v>100</v>
-      </c>
-      <c r="BG2">
-        <v>100</v>
-      </c>
-      <c r="BH2">
-        <v>100</v>
-      </c>
-      <c r="BI2">
-        <v>100</v>
-      </c>
-      <c r="BJ2">
-        <v>100</v>
-      </c>
-      <c r="BK2">
-        <v>100</v>
-      </c>
-      <c r="BL2">
-        <v>100</v>
-      </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
-        <v>1</v>
-      </c>
-      <c r="BQ2">
-        <v>1</v>
-      </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BS2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2">
-        <v>1</v>
-      </c>
-      <c r="BV2">
-        <v>1</v>
-      </c>
-      <c r="BW2">
-        <v>10</v>
-      </c>
-      <c r="BX2">
-        <v>10</v>
-      </c>
-      <c r="BY2">
-        <v>10</v>
-      </c>
-      <c r="BZ2">
-        <v>10</v>
-      </c>
-      <c r="CA2">
-        <v>10</v>
-      </c>
-      <c r="CB2">
-        <v>10</v>
-      </c>
-      <c r="CC2">
-        <v>10</v>
-      </c>
-      <c r="CD2">
-        <v>10</v>
-      </c>
-      <c r="CE2">
-        <v>10</v>
-      </c>
-      <c r="CF2">
-        <v>10</v>
-      </c>
-      <c r="CG2">
+      <c r="BC2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CE2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CG2" s="3">
         <v>20</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="3">
         <v>20</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="3">
         <v>20</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="3">
         <v>20</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="3">
         <v>20</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="3">
         <v>40</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="3">
         <v>40</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="3">
         <v>40</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="3">
         <v>60</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="3">
         <v>60</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="3">
         <v>60</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="3">
         <v>80</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="3">
         <v>80</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="3">
         <v>80</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="3">
         <v>80</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="3">
         <v>80</v>
       </c>
-      <c r="CW2">
-        <v>100</v>
-      </c>
-      <c r="CX2">
-        <v>100</v>
-      </c>
-      <c r="CY2">
-        <v>100</v>
-      </c>
-      <c r="CZ2">
-        <v>100</v>
-      </c>
-      <c r="DA2">
-        <v>100</v>
-      </c>
-      <c r="DB2">
-        <v>100</v>
-      </c>
-      <c r="DC2">
-        <v>100</v>
-      </c>
-      <c r="DD2">
-        <v>100</v>
-      </c>
-      <c r="DE2">
-        <v>100</v>
-      </c>
-      <c r="DF2">
-        <v>100</v>
-      </c>
-      <c r="DG2">
+      <c r="CW2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DE2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DF2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DG2" s="3">
         <v>0</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" s="3">
         <v>3</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DJ2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DK2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DL2" s="3">
         <v>14</v>
       </c>
-      <c r="DJ2">
+      <c r="DM2" s="3">
+        <v>14</v>
+      </c>
+      <c r="DN2" s="3">
+        <v>14</v>
+      </c>
+      <c r="DO2" s="3">
         <v>15</v>
       </c>
-      <c r="DK2">
+      <c r="DP2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DQ2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DR2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DS2" s="3">
         <v>14</v>
       </c>
-      <c r="DL2">
-        <v>10</v>
-      </c>
-      <c r="DM2">
+      <c r="DT2" s="3">
+        <v>11</v>
+      </c>
+      <c r="DU2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DV2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DW2" s="3">
         <v>15</v>
       </c>
-      <c r="DN2">
-        <v>14</v>
-      </c>
-      <c r="DO2">
-        <v>10</v>
-      </c>
-      <c r="DP2">
+      <c r="DX2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DY2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DZ2" s="3">
+        <v>11</v>
+      </c>
+      <c r="EA2" s="3">
         <v>13</v>
       </c>
-      <c r="DQ2">
-        <v>15</v>
-      </c>
-      <c r="DR2">
-        <v>14</v>
-      </c>
-      <c r="DS2">
-        <v>15</v>
-      </c>
-      <c r="DT2">
+      <c r="EB2" s="3">
         <v>11</v>
       </c>
-      <c r="DU2">
-        <v>12</v>
-      </c>
-      <c r="DV2">
-        <v>13</v>
-      </c>
-      <c r="DW2">
-        <v>10</v>
-      </c>
-      <c r="DX2">
-        <v>15</v>
-      </c>
-      <c r="DY2">
-        <v>10</v>
-      </c>
-      <c r="DZ2">
-        <v>9</v>
-      </c>
-      <c r="EA2">
-        <v>14</v>
-      </c>
-      <c r="EB2">
-        <v>15</v>
-      </c>
-      <c r="EC2">
-        <v>12</v>
+      <c r="EC2" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:133" x14ac:dyDescent="0.2">
@@ -2175,350 +2182,350 @@
       <c r="R3" t="s">
         <v>141</v>
       </c>
-      <c r="S3">
-        <v>45</v>
-      </c>
-      <c r="T3">
-        <v>38</v>
-      </c>
-      <c r="U3">
+      <c r="S3" s="3">
+        <v>6</v>
+      </c>
+      <c r="T3" s="3">
+        <v>16</v>
+      </c>
+      <c r="U3" s="3">
+        <v>15</v>
+      </c>
+      <c r="V3" s="3">
+        <v>17</v>
+      </c>
+      <c r="W3" s="3">
+        <v>10</v>
+      </c>
+      <c r="X3" s="3">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>21</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>4</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>18</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>42</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>49</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>34</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>47</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>37</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>46</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>13</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>20</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>19</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>44</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>27</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>37</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>49</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>18</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>30</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>15</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>29</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>41</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>8</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>34</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>20</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>19</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>22</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>7</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>15</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>5</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>49</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>24</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>33</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>49</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>27</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>32</v>
+      </c>
+      <c r="CF3" s="3">
+        <v>47</v>
+      </c>
+      <c r="CG3" s="3">
+        <v>26</v>
+      </c>
+      <c r="CH3" s="3">
         <v>35</v>
       </c>
-      <c r="V3">
-        <v>45</v>
-      </c>
-      <c r="W3">
-        <v>20</v>
-      </c>
-      <c r="X3">
+      <c r="CI3" s="3">
+        <v>41</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>7</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>14</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>42</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>28</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>6</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>23</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>15</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>33</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>37</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>12</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>14</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>32</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>41</v>
+      </c>
+      <c r="CY3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CZ3" s="3">
+        <v>23</v>
+      </c>
+      <c r="DA3" s="3">
         <v>18</v>
       </c>
-      <c r="Y3">
-        <v>22</v>
-      </c>
-      <c r="Z3">
+      <c r="DB3" s="3">
         <v>46</v>
       </c>
-      <c r="AA3">
+      <c r="DC3" s="3">
+        <v>49</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>7</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>40</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>29</v>
+      </c>
+      <c r="DG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DI3" s="3">
         <v>15</v>
       </c>
-      <c r="AB3">
-        <v>33</v>
-      </c>
-      <c r="AC3">
-        <v>37</v>
-      </c>
-      <c r="AD3">
-        <v>28</v>
-      </c>
-      <c r="AE3">
-        <v>35</v>
-      </c>
-      <c r="AF3">
-        <v>29</v>
-      </c>
-      <c r="AG3">
+      <c r="DJ3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>12</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>12</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DU3" s="3">
+        <v>15</v>
+      </c>
+      <c r="DV3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DW3" s="3">
         <v>13</v>
       </c>
-      <c r="AH3">
-        <v>48</v>
-      </c>
-      <c r="AI3">
-        <v>27</v>
-      </c>
-      <c r="AJ3">
-        <v>47</v>
-      </c>
-      <c r="AK3">
-        <v>7</v>
-      </c>
-      <c r="AL3">
-        <v>33</v>
-      </c>
-      <c r="AM3">
+      <c r="DX3" s="3">
+        <v>15</v>
+      </c>
+      <c r="DY3" s="3">
         <v>11</v>
       </c>
-      <c r="AN3">
-        <v>5</v>
-      </c>
-      <c r="AO3">
-        <v>10</v>
-      </c>
-      <c r="AP3">
-        <v>41</v>
-      </c>
-      <c r="AQ3">
-        <v>11</v>
-      </c>
-      <c r="AR3">
-        <v>29</v>
-      </c>
-      <c r="AS3">
-        <v>38</v>
-      </c>
-      <c r="AT3">
-        <v>43</v>
-      </c>
-      <c r="AU3">
-        <v>34</v>
-      </c>
-      <c r="AV3">
-        <v>36</v>
-      </c>
-      <c r="AW3">
+      <c r="DZ3" s="3">
+        <v>13</v>
+      </c>
+      <c r="EA3" s="3">
+        <v>12</v>
+      </c>
+      <c r="EB3" s="3">
         <v>14</v>
       </c>
-      <c r="AX3">
-        <v>23</v>
-      </c>
-      <c r="AY3">
-        <v>45</v>
-      </c>
-      <c r="AZ3">
-        <v>24</v>
-      </c>
-      <c r="BA3">
-        <v>40</v>
-      </c>
-      <c r="BB3">
-        <v>43</v>
-      </c>
-      <c r="BC3">
-        <v>24</v>
-      </c>
-      <c r="BD3">
-        <v>24</v>
-      </c>
-      <c r="BE3">
-        <v>33</v>
-      </c>
-      <c r="BF3">
-        <v>28</v>
-      </c>
-      <c r="BG3">
-        <v>17</v>
-      </c>
-      <c r="BH3">
-        <v>29</v>
-      </c>
-      <c r="BI3">
-        <v>16</v>
-      </c>
-      <c r="BJ3">
-        <v>39</v>
-      </c>
-      <c r="BK3">
-        <v>17</v>
-      </c>
-      <c r="BL3">
-        <v>9</v>
-      </c>
-      <c r="BM3">
-        <v>47</v>
-      </c>
-      <c r="BN3">
-        <v>30</v>
-      </c>
-      <c r="BO3">
-        <v>41</v>
-      </c>
-      <c r="BP3">
-        <v>18</v>
-      </c>
-      <c r="BQ3">
-        <v>6</v>
-      </c>
-      <c r="BR3">
-        <v>31</v>
-      </c>
-      <c r="BS3">
-        <v>6</v>
-      </c>
-      <c r="BT3">
-        <v>22</v>
-      </c>
-      <c r="BU3">
-        <v>5</v>
-      </c>
-      <c r="BV3">
-        <v>1</v>
-      </c>
-      <c r="BW3">
-        <v>24</v>
-      </c>
-      <c r="BX3">
-        <v>35</v>
-      </c>
-      <c r="BY3">
-        <v>16</v>
-      </c>
-      <c r="BZ3">
-        <v>5</v>
-      </c>
-      <c r="CA3">
-        <v>32</v>
-      </c>
-      <c r="CB3">
-        <v>46</v>
-      </c>
-      <c r="CC3">
-        <v>44</v>
-      </c>
-      <c r="CD3">
-        <v>26</v>
-      </c>
-      <c r="CE3">
-        <v>22</v>
-      </c>
-      <c r="CF3">
-        <v>45</v>
-      </c>
-      <c r="CG3">
-        <v>19</v>
-      </c>
-      <c r="CH3">
-        <v>30</v>
-      </c>
-      <c r="CI3">
-        <v>48</v>
-      </c>
-      <c r="CJ3">
-        <v>35</v>
-      </c>
-      <c r="CK3">
-        <v>28</v>
-      </c>
-      <c r="CL3">
-        <v>27</v>
-      </c>
-      <c r="CM3">
-        <v>40</v>
-      </c>
-      <c r="CN3">
-        <v>15</v>
-      </c>
-      <c r="CO3">
-        <v>29</v>
-      </c>
-      <c r="CP3">
-        <v>17</v>
-      </c>
-      <c r="CQ3">
-        <v>20</v>
-      </c>
-      <c r="CR3">
-        <v>14</v>
-      </c>
-      <c r="CS3">
-        <v>15</v>
-      </c>
-      <c r="CT3">
-        <v>43</v>
-      </c>
-      <c r="CU3">
-        <v>2</v>
-      </c>
-      <c r="CV3">
-        <v>31</v>
-      </c>
-      <c r="CW3">
-        <v>25</v>
-      </c>
-      <c r="CX3">
-        <v>13</v>
-      </c>
-      <c r="CY3">
-        <v>12</v>
-      </c>
-      <c r="CZ3">
-        <v>12</v>
-      </c>
-      <c r="DA3">
-        <v>50</v>
-      </c>
-      <c r="DB3">
-        <v>23</v>
-      </c>
-      <c r="DC3">
-        <v>6</v>
-      </c>
-      <c r="DD3">
-        <v>47</v>
-      </c>
-      <c r="DE3">
-        <v>42</v>
-      </c>
-      <c r="DF3">
-        <v>25</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>2</v>
-      </c>
-      <c r="DI3">
-        <v>12</v>
-      </c>
-      <c r="DJ3">
-        <v>14</v>
-      </c>
-      <c r="DK3">
-        <v>15</v>
-      </c>
-      <c r="DL3">
-        <v>12</v>
-      </c>
-      <c r="DM3">
-        <v>11</v>
-      </c>
-      <c r="DN3">
-        <v>12</v>
-      </c>
-      <c r="DO3">
-        <v>12</v>
-      </c>
-      <c r="DP3">
-        <v>15</v>
-      </c>
-      <c r="DQ3">
-        <v>11</v>
-      </c>
-      <c r="DR3">
-        <v>11</v>
-      </c>
-      <c r="DS3">
-        <v>15</v>
-      </c>
-      <c r="DT3">
-        <v>15</v>
-      </c>
-      <c r="DU3">
-        <v>14</v>
-      </c>
-      <c r="DV3">
-        <v>12</v>
-      </c>
-      <c r="DW3">
-        <v>12</v>
-      </c>
-      <c r="DX3">
-        <v>14</v>
-      </c>
-      <c r="DY3">
-        <v>12</v>
-      </c>
-      <c r="DZ3">
-        <v>10</v>
-      </c>
-      <c r="EA3">
-        <v>14</v>
-      </c>
-      <c r="EB3">
-        <v>15</v>
-      </c>
-      <c r="EC3">
-        <v>12</v>
+      <c r="EC3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:133" x14ac:dyDescent="0.2">
@@ -2576,350 +2583,350 @@
       <c r="R4" t="s">
         <v>141</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>10</v>
-      </c>
-      <c r="AD4">
-        <v>10</v>
-      </c>
-      <c r="AE4">
-        <v>10</v>
-      </c>
-      <c r="AF4">
-        <v>10</v>
-      </c>
-      <c r="AG4">
-        <v>10</v>
-      </c>
-      <c r="AH4">
-        <v>10</v>
-      </c>
-      <c r="AI4">
-        <v>10</v>
-      </c>
-      <c r="AJ4">
-        <v>10</v>
-      </c>
-      <c r="AK4">
-        <v>10</v>
-      </c>
-      <c r="AL4">
-        <v>10</v>
-      </c>
-      <c r="AM4">
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="3">
         <v>20</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="3">
         <v>20</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="3">
         <v>20</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="3">
         <v>20</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="3">
         <v>20</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="3">
         <v>40</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="3">
         <v>40</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="3">
         <v>40</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="3">
         <v>60</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="3">
         <v>60</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="3">
         <v>60</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="3">
         <v>80</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="3">
         <v>80</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="3">
         <v>80</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="3">
         <v>80</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="3">
         <v>80</v>
       </c>
-      <c r="BC4">
-        <v>100</v>
-      </c>
-      <c r="BD4">
-        <v>100</v>
-      </c>
-      <c r="BE4">
-        <v>100</v>
-      </c>
-      <c r="BF4">
-        <v>100</v>
-      </c>
-      <c r="BG4">
-        <v>100</v>
-      </c>
-      <c r="BH4">
-        <v>100</v>
-      </c>
-      <c r="BI4">
-        <v>100</v>
-      </c>
-      <c r="BJ4">
-        <v>100</v>
-      </c>
-      <c r="BK4">
-        <v>100</v>
-      </c>
-      <c r="BL4">
-        <v>100</v>
-      </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>1</v>
-      </c>
-      <c r="BU4">
-        <v>1</v>
-      </c>
-      <c r="BV4">
-        <v>1</v>
-      </c>
-      <c r="BW4">
-        <v>10</v>
-      </c>
-      <c r="BX4">
-        <v>10</v>
-      </c>
-      <c r="BY4">
-        <v>10</v>
-      </c>
-      <c r="BZ4">
-        <v>10</v>
-      </c>
-      <c r="CA4">
-        <v>10</v>
-      </c>
-      <c r="CB4">
-        <v>10</v>
-      </c>
-      <c r="CC4">
-        <v>10</v>
-      </c>
-      <c r="CD4">
-        <v>10</v>
-      </c>
-      <c r="CE4">
-        <v>10</v>
-      </c>
-      <c r="CF4">
-        <v>10</v>
-      </c>
-      <c r="CG4">
+      <c r="BC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CE4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CF4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CG4" s="3">
         <v>20</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="3">
         <v>20</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="3">
         <v>20</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="3">
         <v>20</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="3">
         <v>20</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="3">
         <v>40</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="3">
         <v>40</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="3">
         <v>40</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="3">
         <v>60</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" s="3">
         <v>60</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" s="3">
         <v>60</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" s="3">
         <v>80</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" s="3">
         <v>80</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" s="3">
         <v>80</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" s="3">
         <v>80</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" s="3">
         <v>80</v>
       </c>
-      <c r="CW4">
-        <v>100</v>
-      </c>
-      <c r="CX4">
-        <v>100</v>
-      </c>
-      <c r="CY4">
-        <v>100</v>
-      </c>
-      <c r="CZ4">
-        <v>100</v>
-      </c>
-      <c r="DA4">
-        <v>100</v>
-      </c>
-      <c r="DB4">
-        <v>100</v>
-      </c>
-      <c r="DC4">
-        <v>100</v>
-      </c>
-      <c r="DD4">
-        <v>100</v>
-      </c>
-      <c r="DE4">
-        <v>100</v>
-      </c>
-      <c r="DF4">
-        <v>100</v>
-      </c>
-      <c r="DG4">
+      <c r="CW4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DE4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DF4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DG4" s="3">
         <v>0</v>
       </c>
-      <c r="DH4">
-        <v>1</v>
-      </c>
-      <c r="DI4">
-        <v>80</v>
-      </c>
-      <c r="DJ4">
-        <v>164</v>
-      </c>
-      <c r="DK4">
-        <v>190</v>
-      </c>
-      <c r="DL4">
-        <v>176</v>
-      </c>
-      <c r="DM4">
-        <v>60</v>
-      </c>
-      <c r="DN4">
-        <v>82</v>
-      </c>
-      <c r="DO4">
-        <v>49</v>
-      </c>
-      <c r="DP4">
+      <c r="DH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>44</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>118</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>62</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>115</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>78</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>9</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>104</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>41</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>34</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>34</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>151</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>143</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>85</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>169</v>
+      </c>
+      <c r="DW4" s="3">
+        <v>38</v>
+      </c>
+      <c r="DX4" s="3">
+        <v>22</v>
+      </c>
+      <c r="DY4" s="3">
         <v>130</v>
       </c>
-      <c r="DQ4">
-        <v>193</v>
-      </c>
-      <c r="DR4">
-        <v>123</v>
-      </c>
-      <c r="DS4">
-        <v>162</v>
-      </c>
-      <c r="DT4">
-        <v>18</v>
-      </c>
-      <c r="DU4">
-        <v>38</v>
-      </c>
-      <c r="DV4">
-        <v>57</v>
-      </c>
-      <c r="DW4">
-        <v>39</v>
-      </c>
-      <c r="DX4">
-        <v>164</v>
-      </c>
-      <c r="DY4">
-        <v>12</v>
-      </c>
-      <c r="DZ4">
-        <v>199</v>
-      </c>
-      <c r="EA4">
-        <v>59</v>
-      </c>
-      <c r="EB4">
-        <v>1</v>
-      </c>
-      <c r="EC4">
-        <v>1</v>
+      <c r="DZ4" s="3">
+        <v>189</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>169</v>
+      </c>
+      <c r="EB4" s="3">
+        <v>153</v>
+      </c>
+      <c r="EC4" s="3">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:133" x14ac:dyDescent="0.2">
@@ -2977,350 +2984,350 @@
       <c r="R5" t="s">
         <v>141</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="3">
+        <v>20</v>
+      </c>
+      <c r="T5" s="3">
+        <v>23</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>38</v>
+      </c>
+      <c r="W5" s="3">
+        <v>34</v>
+      </c>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>34</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>47</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>35</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>46</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>48</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>45</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>34</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>27</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>26</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>34</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>13</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>15</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>39</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>16</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>33</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>8</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>16</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>38</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>37</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>21</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>34</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>50</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>3</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>35</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>38</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>4</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>4</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>42</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>23</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>22</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>16</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>6</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>39</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>21</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>10</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>45</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>11</v>
+      </c>
+      <c r="CJ5" s="3">
+        <v>31</v>
+      </c>
+      <c r="CK5" s="3">
+        <v>43</v>
+      </c>
+      <c r="CL5" s="3">
         <v>32</v>
       </c>
-      <c r="T5">
+      <c r="CM5" s="3">
+        <v>24</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>33</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>40</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>47</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>32</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>19</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>3</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>27</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>43</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>5</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>49</v>
+      </c>
+      <c r="CX5" s="3">
+        <v>7</v>
+      </c>
+      <c r="CY5" s="3">
+        <v>20</v>
+      </c>
+      <c r="CZ5" s="3">
         <v>45</v>
       </c>
-      <c r="U5">
-        <v>27</v>
-      </c>
-      <c r="V5">
-        <v>16</v>
-      </c>
-      <c r="W5">
+      <c r="DA5" s="3">
+        <v>7</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>33</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>44</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>2</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>34</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>10</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>193</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>169</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>49</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>171</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>115</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>71</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>141</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>114</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>32</v>
+      </c>
+      <c r="DR5" s="3">
+        <v>112</v>
+      </c>
+      <c r="DS5" s="3">
+        <v>200</v>
+      </c>
+      <c r="DT5" s="3">
+        <v>32</v>
+      </c>
+      <c r="DU5" s="3">
         <v>14</v>
       </c>
-      <c r="X5">
+      <c r="DV5" s="3">
+        <v>96</v>
+      </c>
+      <c r="DW5" s="3">
+        <v>156</v>
+      </c>
+      <c r="DX5" s="3">
+        <v>62</v>
+      </c>
+      <c r="DY5" s="3">
+        <v>52</v>
+      </c>
+      <c r="DZ5" s="3">
         <v>50</v>
       </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-      <c r="Z5">
-        <v>19</v>
-      </c>
-      <c r="AA5">
-        <v>22</v>
-      </c>
-      <c r="AB5">
-        <v>34</v>
-      </c>
-      <c r="AC5">
-        <v>50</v>
-      </c>
-      <c r="AD5">
-        <v>25</v>
-      </c>
-      <c r="AE5">
-        <v>14</v>
-      </c>
-      <c r="AF5">
-        <v>32</v>
-      </c>
-      <c r="AG5">
-        <v>48</v>
-      </c>
-      <c r="AH5">
-        <v>2</v>
-      </c>
-      <c r="AI5">
-        <v>34</v>
-      </c>
-      <c r="AJ5">
-        <v>14</v>
-      </c>
-      <c r="AK5">
-        <v>21</v>
-      </c>
-      <c r="AL5">
-        <v>28</v>
-      </c>
-      <c r="AM5">
-        <v>39</v>
-      </c>
-      <c r="AN5">
-        <v>5</v>
-      </c>
-      <c r="AO5">
-        <v>20</v>
-      </c>
-      <c r="AP5">
-        <v>49</v>
-      </c>
-      <c r="AQ5">
-        <v>33</v>
-      </c>
-      <c r="AR5">
-        <v>13</v>
-      </c>
-      <c r="AS5">
-        <v>39</v>
-      </c>
-      <c r="AT5">
-        <v>26</v>
-      </c>
-      <c r="AU5">
-        <v>31</v>
-      </c>
-      <c r="AV5">
-        <v>13</v>
-      </c>
-      <c r="AW5">
-        <v>22</v>
-      </c>
-      <c r="AX5">
-        <v>7</v>
-      </c>
-      <c r="AY5">
-        <v>41</v>
-      </c>
-      <c r="AZ5">
-        <v>4</v>
-      </c>
-      <c r="BA5">
-        <v>1</v>
-      </c>
-      <c r="BB5">
-        <v>41</v>
-      </c>
-      <c r="BC5">
-        <v>15</v>
-      </c>
-      <c r="BD5">
-        <v>45</v>
-      </c>
-      <c r="BE5">
-        <v>14</v>
-      </c>
-      <c r="BF5">
-        <v>50</v>
-      </c>
-      <c r="BG5">
-        <v>32</v>
-      </c>
-      <c r="BH5">
-        <v>29</v>
-      </c>
-      <c r="BI5">
-        <v>30</v>
-      </c>
-      <c r="BJ5">
-        <v>50</v>
-      </c>
-      <c r="BK5">
-        <v>12</v>
-      </c>
-      <c r="BL5">
-        <v>38</v>
-      </c>
-      <c r="BM5">
-        <v>31</v>
-      </c>
-      <c r="BN5">
-        <v>35</v>
-      </c>
-      <c r="BO5">
-        <v>31</v>
-      </c>
-      <c r="BP5">
-        <v>9</v>
-      </c>
-      <c r="BQ5">
-        <v>5</v>
-      </c>
-      <c r="BR5">
-        <v>32</v>
-      </c>
-      <c r="BS5">
-        <v>43</v>
-      </c>
-      <c r="BT5">
-        <v>30</v>
-      </c>
-      <c r="BU5">
-        <v>8</v>
-      </c>
-      <c r="BV5">
-        <v>37</v>
-      </c>
-      <c r="BW5">
-        <v>27</v>
-      </c>
-      <c r="BX5">
-        <v>14</v>
-      </c>
-      <c r="BY5">
-        <v>6</v>
-      </c>
-      <c r="BZ5">
-        <v>6</v>
-      </c>
-      <c r="CA5">
-        <v>4</v>
-      </c>
-      <c r="CB5">
-        <v>8</v>
-      </c>
-      <c r="CC5">
-        <v>3</v>
-      </c>
-      <c r="CD5">
-        <v>32</v>
-      </c>
-      <c r="CE5">
-        <v>31</v>
-      </c>
-      <c r="CF5">
-        <v>4</v>
-      </c>
-      <c r="CG5">
-        <v>30</v>
-      </c>
-      <c r="CH5">
-        <v>24</v>
-      </c>
-      <c r="CI5">
-        <v>47</v>
-      </c>
-      <c r="CJ5">
-        <v>38</v>
-      </c>
-      <c r="CK5">
-        <v>42</v>
-      </c>
-      <c r="CL5">
-        <v>20</v>
-      </c>
-      <c r="CM5">
-        <v>37</v>
-      </c>
-      <c r="CN5">
-        <v>41</v>
-      </c>
-      <c r="CO5">
-        <v>22</v>
-      </c>
-      <c r="CP5">
-        <v>46</v>
-      </c>
-      <c r="CQ5">
-        <v>18</v>
-      </c>
-      <c r="CR5">
-        <v>26</v>
-      </c>
-      <c r="CS5">
-        <v>12</v>
-      </c>
-      <c r="CT5">
-        <v>40</v>
-      </c>
-      <c r="CU5">
-        <v>30</v>
-      </c>
-      <c r="CV5">
-        <v>27</v>
-      </c>
-      <c r="CW5">
-        <v>24</v>
-      </c>
-      <c r="CX5">
-        <v>20</v>
-      </c>
-      <c r="CY5">
-        <v>40</v>
-      </c>
-      <c r="CZ5">
-        <v>48</v>
-      </c>
-      <c r="DA5">
-        <v>46</v>
-      </c>
-      <c r="DB5">
-        <v>14</v>
-      </c>
-      <c r="DC5">
-        <v>9</v>
-      </c>
-      <c r="DD5">
-        <v>39</v>
-      </c>
-      <c r="DE5">
-        <v>29</v>
-      </c>
-      <c r="DF5">
-        <v>26</v>
-      </c>
-      <c r="DG5">
-        <v>0</v>
-      </c>
-      <c r="DH5">
-        <v>0.01</v>
-      </c>
-      <c r="DI5">
-        <v>82</v>
-      </c>
-      <c r="DJ5">
-        <v>63</v>
-      </c>
-      <c r="DK5">
-        <v>82</v>
-      </c>
-      <c r="DL5">
-        <v>200</v>
-      </c>
-      <c r="DM5">
-        <v>108</v>
-      </c>
-      <c r="DN5">
-        <v>89</v>
-      </c>
-      <c r="DO5">
-        <v>113</v>
-      </c>
-      <c r="DP5">
-        <v>115</v>
-      </c>
-      <c r="DQ5">
-        <v>113</v>
-      </c>
-      <c r="DR5">
-        <v>110</v>
-      </c>
-      <c r="DS5">
-        <v>75</v>
-      </c>
-      <c r="DT5">
-        <v>134</v>
-      </c>
-      <c r="DU5">
-        <v>27</v>
-      </c>
-      <c r="DV5">
-        <v>133</v>
-      </c>
-      <c r="DW5">
-        <v>129</v>
-      </c>
-      <c r="DX5">
-        <v>72</v>
-      </c>
-      <c r="DY5">
-        <v>156</v>
-      </c>
-      <c r="DZ5">
-        <v>41</v>
-      </c>
-      <c r="EA5">
-        <v>60</v>
-      </c>
-      <c r="EB5">
-        <v>155</v>
-      </c>
-      <c r="EC5">
-        <v>12</v>
+      <c r="EA5" s="3">
+        <v>77</v>
+      </c>
+      <c r="EB5" s="3">
+        <v>96</v>
+      </c>
+      <c r="EC5" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3330,11 +3337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:EA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3768,350 +3775,350 @@
       <c r="N2" t="s">
         <v>135</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>10</v>
-      </c>
-      <c r="AB2">
-        <v>10</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
-      <c r="AD2">
-        <v>10</v>
-      </c>
-      <c r="AE2">
-        <v>10</v>
-      </c>
-      <c r="AF2">
-        <v>10</v>
-      </c>
-      <c r="AG2">
-        <v>10</v>
-      </c>
-      <c r="AH2">
-        <v>10</v>
-      </c>
-      <c r="AI2">
-        <v>10</v>
-      </c>
-      <c r="AJ2">
-        <v>10</v>
-      </c>
-      <c r="AK2">
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK2" s="3">
         <v>20</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="3">
         <v>20</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="3">
         <v>20</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="3">
         <v>20</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="3">
         <v>20</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="3">
         <v>40</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="3">
         <v>40</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="3">
         <v>40</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="3">
         <v>60</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="3">
         <v>60</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="3">
         <v>60</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="3">
         <v>80</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="3">
         <v>80</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="3">
         <v>80</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="3">
         <v>80</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="3">
         <v>80</v>
       </c>
-      <c r="BA2">
-        <v>100</v>
-      </c>
-      <c r="BB2">
-        <v>100</v>
-      </c>
-      <c r="BC2">
-        <v>100</v>
-      </c>
-      <c r="BD2">
-        <v>100</v>
-      </c>
-      <c r="BE2">
-        <v>100</v>
-      </c>
-      <c r="BF2">
-        <v>100</v>
-      </c>
-      <c r="BG2">
-        <v>100</v>
-      </c>
-      <c r="BH2">
-        <v>100</v>
-      </c>
-      <c r="BI2">
-        <v>100</v>
-      </c>
-      <c r="BJ2">
-        <v>100</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>1</v>
-      </c>
-      <c r="BM2">
-        <v>1</v>
-      </c>
-      <c r="BN2">
-        <v>1</v>
-      </c>
-      <c r="BO2">
-        <v>1</v>
-      </c>
-      <c r="BP2">
-        <v>1</v>
-      </c>
-      <c r="BQ2">
-        <v>1</v>
-      </c>
-      <c r="BR2">
-        <v>1</v>
-      </c>
-      <c r="BS2">
-        <v>1</v>
-      </c>
-      <c r="BT2">
-        <v>1</v>
-      </c>
-      <c r="BU2">
-        <v>10</v>
-      </c>
-      <c r="BV2">
-        <v>10</v>
-      </c>
-      <c r="BW2">
-        <v>10</v>
-      </c>
-      <c r="BX2">
-        <v>10</v>
-      </c>
-      <c r="BY2">
-        <v>10</v>
-      </c>
-      <c r="BZ2">
-        <v>10</v>
-      </c>
-      <c r="CA2">
-        <v>10</v>
-      </c>
-      <c r="CB2">
-        <v>10</v>
-      </c>
-      <c r="CC2">
-        <v>10</v>
-      </c>
-      <c r="CD2">
-        <v>10</v>
-      </c>
-      <c r="CE2">
+      <c r="BA2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BB2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BF2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BG2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BH2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BJ2" s="3">
+        <v>100</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>10</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CA2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CB2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CD2" s="3">
+        <v>10</v>
+      </c>
+      <c r="CE2" s="3">
         <v>20</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="3">
         <v>20</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="3">
         <v>20</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="3">
         <v>20</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="3">
         <v>20</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="3">
         <v>40</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="3">
         <v>40</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="3">
         <v>40</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="3">
         <v>60</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="3">
         <v>60</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="3">
         <v>60</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="3">
         <v>80</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="3">
         <v>80</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="3">
         <v>80</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="3">
         <v>80</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="3">
         <v>80</v>
       </c>
-      <c r="CU2">
-        <v>100</v>
-      </c>
-      <c r="CV2">
-        <v>100</v>
-      </c>
-      <c r="CW2">
-        <v>100</v>
-      </c>
-      <c r="CX2">
-        <v>100</v>
-      </c>
-      <c r="CY2">
-        <v>100</v>
-      </c>
-      <c r="CZ2">
-        <v>100</v>
-      </c>
-      <c r="DA2">
-        <v>100</v>
-      </c>
-      <c r="DB2">
-        <v>100</v>
-      </c>
-      <c r="DC2">
-        <v>100</v>
-      </c>
-      <c r="DD2">
-        <v>100</v>
-      </c>
-      <c r="DE2">
+      <c r="CU2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CV2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CW2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CX2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CY2" s="3">
+        <v>100</v>
+      </c>
+      <c r="CZ2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DA2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DB2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DC2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="DE2" s="3">
         <v>0</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" s="3">
         <v>3</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DH2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DI2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DJ2" s="3">
         <v>14</v>
       </c>
-      <c r="DH2">
+      <c r="DK2" s="3">
+        <v>14</v>
+      </c>
+      <c r="DL2" s="3">
+        <v>14</v>
+      </c>
+      <c r="DM2" s="3">
         <v>15</v>
       </c>
-      <c r="DI2">
+      <c r="DN2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DO2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DP2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DQ2" s="3">
         <v>14</v>
       </c>
-      <c r="DJ2">
-        <v>10</v>
-      </c>
-      <c r="DK2">
+      <c r="DR2" s="3">
+        <v>11</v>
+      </c>
+      <c r="DS2" s="3">
+        <v>13</v>
+      </c>
+      <c r="DT2" s="3">
+        <v>12</v>
+      </c>
+      <c r="DU2" s="3">
         <v>15</v>
       </c>
-      <c r="DL2">
-        <v>14</v>
-      </c>
-      <c r="DM2">
-        <v>10</v>
-      </c>
-      <c r="DN2">
+      <c r="DV2" s="3">
+        <v>15</v>
+      </c>
+      <c r="DW2" s="3">
+        <v>10</v>
+      </c>
+      <c r="DX2" s="3">
+        <v>11</v>
+      </c>
+      <c r="DY2" s="3">
         <v>13</v>
       </c>
-      <c r="DO2">
-        <v>15</v>
-      </c>
-      <c r="DP2">
-        <v>14</v>
-      </c>
-      <c r="DQ2">
-        <v>15</v>
-      </c>
-      <c r="DR2">
+      <c r="DZ2" s="3">
         <v>11</v>
       </c>
-      <c r="DS2">
-        <v>12</v>
-      </c>
-      <c r="DT2">
-        <v>13</v>
-      </c>
-      <c r="DU2">
-        <v>10</v>
-      </c>
-      <c r="DV2">
-        <v>15</v>
-      </c>
-      <c r="DW2">
-        <v>10</v>
-      </c>
-      <c r="DX2">
-        <v>9</v>
-      </c>
-      <c r="DY2">
-        <v>14</v>
-      </c>
-      <c r="DZ2">
-        <v>15</v>
-      </c>
-      <c r="EA2">
-        <v>12</v>
+      <c r="EA2" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:131" x14ac:dyDescent="0.2">
@@ -4163,350 +4170,350 @@
       <c r="P3" t="s">
         <v>141</v>
       </c>
-      <c r="Q3">
-        <v>45</v>
-      </c>
-      <c r="R3">
-        <v>38</v>
-      </c>
-      <c r="S3">
+      <c r="Q3" s="3">
+        <v>6</v>
+      </c>
+      <c r="R3" s="3">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3">
+        <v>15</v>
+      </c>
+      <c r="T3" s="3">
+        <v>17</v>
+      </c>
+      <c r="U3" s="3">
+        <v>10</v>
+      </c>
+      <c r="V3" s="3">
+        <v>8</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3</v>
+      </c>
+      <c r="X3" s="3">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>23</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>21</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>43</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>48</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>25</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>18</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>42</v>
+      </c>
+      <c r="AR3" s="3">
+        <v>26</v>
+      </c>
+      <c r="AS3" s="3">
+        <v>49</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>31</v>
+      </c>
+      <c r="AV3" s="3">
+        <v>47</v>
+      </c>
+      <c r="AW3" s="3">
+        <v>37</v>
+      </c>
+      <c r="AX3" s="3">
+        <v>46</v>
+      </c>
+      <c r="AY3" s="3">
+        <v>13</v>
+      </c>
+      <c r="AZ3" s="3">
+        <v>20</v>
+      </c>
+      <c r="BA3" s="3">
+        <v>19</v>
+      </c>
+      <c r="BB3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>44</v>
+      </c>
+      <c r="BD3" s="3">
+        <v>27</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>37</v>
+      </c>
+      <c r="BF3" s="3">
+        <v>49</v>
+      </c>
+      <c r="BG3" s="3">
+        <v>18</v>
+      </c>
+      <c r="BH3" s="3">
+        <v>30</v>
+      </c>
+      <c r="BI3" s="3">
+        <v>15</v>
+      </c>
+      <c r="BJ3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>12</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>29</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>41</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>8</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>34</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>20</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>19</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>22</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>7</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>15</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>5</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>49</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>24</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>33</v>
+      </c>
+      <c r="CA3" s="3">
+        <v>49</v>
+      </c>
+      <c r="CB3" s="3">
+        <v>27</v>
+      </c>
+      <c r="CC3" s="3">
+        <v>32</v>
+      </c>
+      <c r="CD3" s="3">
+        <v>47</v>
+      </c>
+      <c r="CE3" s="3">
+        <v>26</v>
+      </c>
+      <c r="CF3" s="3">
         <v>35</v>
       </c>
-      <c r="T3">
-        <v>45</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
+      <c r="CG3" s="3">
+        <v>41</v>
+      </c>
+      <c r="CH3" s="3">
+        <v>7</v>
+      </c>
+      <c r="CI3" s="3">
+        <v>14</v>
+      </c>
+      <c r="CJ3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CK3" s="3">
+        <v>42</v>
+      </c>
+      <c r="CL3" s="3">
+        <v>28</v>
+      </c>
+      <c r="CM3" s="3">
+        <v>6</v>
+      </c>
+      <c r="CN3" s="3">
+        <v>23</v>
+      </c>
+      <c r="CO3" s="3">
+        <v>15</v>
+      </c>
+      <c r="CP3" s="3">
+        <v>33</v>
+      </c>
+      <c r="CQ3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CR3" s="3">
+        <v>37</v>
+      </c>
+      <c r="CS3" s="3">
+        <v>12</v>
+      </c>
+      <c r="CT3" s="3">
+        <v>14</v>
+      </c>
+      <c r="CU3" s="3">
+        <v>32</v>
+      </c>
+      <c r="CV3" s="3">
+        <v>41</v>
+      </c>
+      <c r="CW3" s="3">
+        <v>48</v>
+      </c>
+      <c r="CX3" s="3">
+        <v>23</v>
+      </c>
+      <c r="CY3" s="3">
         <v>18</v>
       </c>
-      <c r="W3">
-        <v>22</v>
-      </c>
-      <c r="X3">
+      <c r="CZ3" s="3">
         <v>46</v>
       </c>
-      <c r="Y3">
+      <c r="DA3" s="3">
+        <v>49</v>
+      </c>
+      <c r="DB3" s="3">
+        <v>7</v>
+      </c>
+      <c r="DC3" s="3">
+        <v>40</v>
+      </c>
+      <c r="DD3" s="3">
+        <v>29</v>
+      </c>
+      <c r="DE3" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="3">
+        <v>2</v>
+      </c>
+      <c r="DG3" s="3">
         <v>15</v>
       </c>
-      <c r="Z3">
-        <v>33</v>
-      </c>
-      <c r="AA3">
-        <v>37</v>
-      </c>
-      <c r="AB3">
-        <v>28</v>
-      </c>
-      <c r="AC3">
-        <v>35</v>
-      </c>
-      <c r="AD3">
-        <v>29</v>
-      </c>
-      <c r="AE3">
+      <c r="DH3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DI3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DJ3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DK3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DL3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DM3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DN3" s="3">
+        <v>10</v>
+      </c>
+      <c r="DO3" s="3">
+        <v>12</v>
+      </c>
+      <c r="DP3" s="3">
+        <v>11</v>
+      </c>
+      <c r="DQ3" s="3">
+        <v>12</v>
+      </c>
+      <c r="DR3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DS3" s="3">
+        <v>15</v>
+      </c>
+      <c r="DT3" s="3">
+        <v>14</v>
+      </c>
+      <c r="DU3" s="3">
         <v>13</v>
       </c>
-      <c r="AF3">
-        <v>48</v>
-      </c>
-      <c r="AG3">
-        <v>27</v>
-      </c>
-      <c r="AH3">
-        <v>47</v>
-      </c>
-      <c r="AI3">
-        <v>7</v>
-      </c>
-      <c r="AJ3">
-        <v>33</v>
-      </c>
-      <c r="AK3">
+      <c r="DV3" s="3">
+        <v>15</v>
+      </c>
+      <c r="DW3" s="3">
         <v>11</v>
       </c>
-      <c r="AL3">
-        <v>5</v>
-      </c>
-      <c r="AM3">
-        <v>10</v>
-      </c>
-      <c r="AN3">
-        <v>41</v>
-      </c>
-      <c r="AO3">
-        <v>11</v>
-      </c>
-      <c r="AP3">
-        <v>29</v>
-      </c>
-      <c r="AQ3">
-        <v>38</v>
-      </c>
-      <c r="AR3">
-        <v>43</v>
-      </c>
-      <c r="AS3">
-        <v>34</v>
-      </c>
-      <c r="AT3">
-        <v>36</v>
-      </c>
-      <c r="AU3">
+      <c r="DX3" s="3">
+        <v>13</v>
+      </c>
+      <c r="DY3" s="3">
+        <v>12</v>
+      </c>
+      <c r="DZ3" s="3">
         <v>14</v>
       </c>
-      <c r="AV3">
-        <v>23</v>
-      </c>
-      <c r="AW3">
-        <v>45</v>
-      </c>
-      <c r="AX3">
-        <v>24</v>
-      </c>
-      <c r="AY3">
-        <v>40</v>
-      </c>
-      <c r="AZ3">
-        <v>43</v>
-      </c>
-      <c r="BA3">
-        <v>24</v>
-      </c>
-      <c r="BB3">
-        <v>24</v>
-      </c>
-      <c r="BC3">
-        <v>33</v>
-      </c>
-      <c r="BD3">
-        <v>28</v>
-      </c>
-      <c r="BE3">
-        <v>17</v>
-      </c>
-      <c r="BF3">
-        <v>29</v>
-      </c>
-      <c r="BG3">
-        <v>16</v>
-      </c>
-      <c r="BH3">
-        <v>39</v>
-      </c>
-      <c r="BI3">
-        <v>17</v>
-      </c>
-      <c r="BJ3">
-        <v>9</v>
-      </c>
-      <c r="BK3">
-        <v>47</v>
-      </c>
-      <c r="BL3">
-        <v>30</v>
-      </c>
-      <c r="BM3">
-        <v>41</v>
-      </c>
-      <c r="BN3">
-        <v>18</v>
-      </c>
-      <c r="BO3">
-        <v>6</v>
-      </c>
-      <c r="BP3">
-        <v>31</v>
-      </c>
-      <c r="BQ3">
-        <v>6</v>
-      </c>
-      <c r="BR3">
-        <v>22</v>
-      </c>
-      <c r="BS3">
-        <v>5</v>
-      </c>
-      <c r="BT3">
-        <v>1</v>
-      </c>
-      <c r="BU3">
-        <v>24</v>
-      </c>
-      <c r="BV3">
-        <v>35</v>
-      </c>
-      <c r="BW3">
-        <v>16</v>
-      </c>
-      <c r="BX3">
-        <v>5</v>
-      </c>
-      <c r="BY3">
-        <v>32</v>
-      </c>
-      <c r="BZ3">
-        <v>46</v>
-      </c>
-      <c r="CA3">
-        <v>44</v>
-      </c>
-      <c r="CB3">
-        <v>26</v>
-      </c>
-      <c r="CC3">
-        <v>22</v>
-      </c>
-      <c r="CD3">
-        <v>45</v>
-      </c>
-      <c r="CE3">
-        <v>19</v>
-      </c>
-      <c r="CF3">
-        <v>30</v>
-      </c>
-      <c r="CG3">
-        <v>48</v>
-      </c>
-      <c r="CH3">
-        <v>35</v>
-      </c>
-      <c r="CI3">
-        <v>28</v>
-      </c>
-      <c r="CJ3">
-        <v>27</v>
-      </c>
-      <c r="CK3">
-        <v>40</v>
-      </c>
-      <c r="CL3">
-        <v>15</v>
-      </c>
-      <c r="CM3">
-        <v>29</v>
-      </c>
-      <c r="CN3">
-        <v>17</v>
-      </c>
-      <c r="CO3">
-        <v>20</v>
-      </c>
-      <c r="CP3">
-        <v>14</v>
-      </c>
-      <c r="CQ3">
-        <v>15</v>
-      </c>
-      <c r="CR3">
-        <v>43</v>
-      </c>
-      <c r="CS3">
-        <v>2</v>
-      </c>
-      <c r="CT3">
-        <v>31</v>
-      </c>
-      <c r="CU3">
-        <v>25</v>
-      </c>
-      <c r="CV3">
-        <v>13</v>
-      </c>
-      <c r="CW3">
-        <v>12</v>
-      </c>
-      <c r="CX3">
-        <v>12</v>
-      </c>
-      <c r="CY3">
-        <v>50</v>
-      </c>
-      <c r="CZ3">
-        <v>23</v>
-      </c>
-      <c r="DA3">
-        <v>6</v>
-      </c>
-      <c r="DB3">
-        <v>47</v>
-      </c>
-      <c r="DC3">
-        <v>42</v>
-      </c>
-      <c r="DD3">
-        <v>25</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>2</v>
-      </c>
-      <c r="DG3">
-        <v>12</v>
-      </c>
-      <c r="DH3">
-        <v>14</v>
-      </c>
-      <c r="DI3">
-        <v>15</v>
-      </c>
-      <c r="DJ3">
-        <v>12</v>
-      </c>
-      <c r="DK3">
-        <v>11</v>
-      </c>
-      <c r="DL3">
-        <v>12</v>
-      </c>
-      <c r="DM3">
-        <v>12</v>
-      </c>
-      <c r="DN3">
-        <v>15</v>
-      </c>
-      <c r="DO3">
-        <v>11</v>
-      </c>
-      <c r="DP3">
-        <v>11</v>
-      </c>
-      <c r="DQ3">
-        <v>15</v>
-      </c>
-      <c r="DR3">
-        <v>15</v>
-      </c>
-      <c r="DS3">
-        <v>14</v>
-      </c>
-      <c r="DT3">
-        <v>12</v>
-      </c>
-      <c r="DU3">
-        <v>12</v>
-      </c>
-      <c r="DV3">
-        <v>14</v>
-      </c>
-      <c r="DW3">
-        <v>12</v>
-      </c>
-      <c r="DX3">
-        <v>10</v>
-      </c>
-      <c r="DY3">
-        <v>14</v>
-      </c>
-      <c r="DZ3">
-        <v>15</v>
-      </c>
-      <c r="EA3">
-        <v>12</v>
+      <c r="EA3" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:131" x14ac:dyDescent="0.2">
@@ -4558,350 +4565,350 @@
       <c r="P4" t="s">
         <v>141</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>10</v>
-      </c>
-      <c r="AB4">
-        <v>10</v>
-      </c>
-      <c r="AC4">
-        <v>10</v>
-      </c>
-      <c r="AD4">
-        <v>10</v>
-      </c>
-      <c r="AE4">
-        <v>10</v>
-      </c>
-      <c r="AF4">
-        <v>10</v>
-      </c>
-      <c r="AG4">
-        <v>10</v>
-      </c>
-      <c r="AH4">
-        <v>10</v>
-      </c>
-      <c r="AI4">
-        <v>10</v>
-      </c>
-      <c r="AJ4">
-        <v>10</v>
-      </c>
-      <c r="AK4">
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="3">
         <v>20</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="3">
         <v>20</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="3">
         <v>20</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="3">
         <v>20</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="3">
         <v>20</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="3">
         <v>40</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="3">
         <v>40</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="3">
         <v>40</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="3">
         <v>60</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="3">
         <v>60</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="3">
         <v>60</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="3">
         <v>80</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="3">
         <v>80</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="3">
         <v>80</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="3">
         <v>80</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="3">
         <v>80</v>
       </c>
-      <c r="BA4">
-        <v>100</v>
-      </c>
-      <c r="BB4">
-        <v>100</v>
-      </c>
-      <c r="BC4">
-        <v>100</v>
-      </c>
-      <c r="BD4">
-        <v>100</v>
-      </c>
-      <c r="BE4">
-        <v>100</v>
-      </c>
-      <c r="BF4">
-        <v>100</v>
-      </c>
-      <c r="BG4">
-        <v>100</v>
-      </c>
-      <c r="BH4">
-        <v>100</v>
-      </c>
-      <c r="BI4">
-        <v>100</v>
-      </c>
-      <c r="BJ4">
-        <v>100</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>1</v>
-      </c>
-      <c r="BM4">
-        <v>1</v>
-      </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>1</v>
-      </c>
-      <c r="BU4">
-        <v>10</v>
-      </c>
-      <c r="BV4">
-        <v>10</v>
-      </c>
-      <c r="BW4">
-        <v>10</v>
-      </c>
-      <c r="BX4">
-        <v>10</v>
-      </c>
-      <c r="BY4">
-        <v>10</v>
-      </c>
-      <c r="BZ4">
-        <v>10</v>
-      </c>
-      <c r="CA4">
-        <v>10</v>
-      </c>
-      <c r="CB4">
-        <v>10</v>
-      </c>
-      <c r="CC4">
-        <v>10</v>
-      </c>
-      <c r="CD4">
-        <v>10</v>
-      </c>
-      <c r="CE4">
+      <c r="BA4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BB4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BD4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BF4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BH4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BI4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BJ4" s="3">
+        <v>100</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>10</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CA4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CB4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CC4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CD4" s="3">
+        <v>10</v>
+      </c>
+      <c r="CE4" s="3">
         <v>20</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" s="3">
         <v>20</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" s="3">
         <v>20</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" s="3">
         <v>20</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" s="3">
         <v>20</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" s="3">
         <v>40</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" s="3">
         <v>40</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" s="3">
         <v>40</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" s="3">
         <v>60</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" s="3">
         <v>60</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" s="3">
         <v>60</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" s="3">
         <v>80</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" s="3">
         <v>80</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" s="3">
         <v>80</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" s="3">
         <v>80</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" s="3">
         <v>80</v>
       </c>
-      <c r="CU4">
-        <v>100</v>
-      </c>
-      <c r="CV4">
-        <v>100</v>
-      </c>
-      <c r="CW4">
-        <v>100</v>
-      </c>
-      <c r="CX4">
-        <v>100</v>
-      </c>
-      <c r="CY4">
-        <v>100</v>
-      </c>
-      <c r="CZ4">
-        <v>100</v>
-      </c>
-      <c r="DA4">
-        <v>100</v>
-      </c>
-      <c r="DB4">
-        <v>100</v>
-      </c>
-      <c r="DC4">
-        <v>100</v>
-      </c>
-      <c r="DD4">
-        <v>100</v>
-      </c>
-      <c r="DE4">
+      <c r="CU4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CV4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CW4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CX4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CY4" s="3">
+        <v>100</v>
+      </c>
+      <c r="CZ4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DA4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DB4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DC4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="3">
+        <v>100</v>
+      </c>
+      <c r="DE4" s="3">
         <v>0</v>
       </c>
-      <c r="DF4">
-        <v>1</v>
-      </c>
-      <c r="DG4">
-        <v>80</v>
-      </c>
-      <c r="DH4">
-        <v>164</v>
-      </c>
-      <c r="DI4">
-        <v>190</v>
-      </c>
-      <c r="DJ4">
-        <v>176</v>
-      </c>
-      <c r="DK4">
-        <v>60</v>
-      </c>
-      <c r="DL4">
-        <v>82</v>
-      </c>
-      <c r="DM4">
-        <v>49</v>
-      </c>
-      <c r="DN4">
+      <c r="DF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="DG4" s="3">
+        <v>44</v>
+      </c>
+      <c r="DH4" s="3">
+        <v>118</v>
+      </c>
+      <c r="DI4" s="3">
+        <v>62</v>
+      </c>
+      <c r="DJ4" s="3">
+        <v>115</v>
+      </c>
+      <c r="DK4" s="3">
+        <v>78</v>
+      </c>
+      <c r="DL4" s="3">
+        <v>9</v>
+      </c>
+      <c r="DM4" s="3">
+        <v>104</v>
+      </c>
+      <c r="DN4" s="3">
+        <v>41</v>
+      </c>
+      <c r="DO4" s="3">
+        <v>34</v>
+      </c>
+      <c r="DP4" s="3">
+        <v>34</v>
+      </c>
+      <c r="DQ4" s="3">
+        <v>151</v>
+      </c>
+      <c r="DR4" s="3">
+        <v>143</v>
+      </c>
+      <c r="DS4" s="3">
+        <v>85</v>
+      </c>
+      <c r="DT4" s="3">
+        <v>169</v>
+      </c>
+      <c r="DU4" s="3">
+        <v>38</v>
+      </c>
+      <c r="DV4" s="3">
+        <v>22</v>
+      </c>
+      <c r="DW4" s="3">
         <v>130</v>
       </c>
-      <c r="DO4">
-        <v>193</v>
-      </c>
-      <c r="DP4">
-        <v>123</v>
-      </c>
-      <c r="DQ4">
-        <v>162</v>
-      </c>
-      <c r="DR4">
-        <v>18</v>
-      </c>
-      <c r="DS4">
-        <v>38</v>
-      </c>
-      <c r="DT4">
-        <v>57</v>
-      </c>
-      <c r="DU4">
-        <v>39</v>
-      </c>
-      <c r="DV4">
-        <v>164</v>
-      </c>
-      <c r="DW4">
-        <v>12</v>
-      </c>
-      <c r="DX4">
-        <v>199</v>
-      </c>
-      <c r="DY4">
-        <v>59</v>
-      </c>
-      <c r="DZ4">
-        <v>1</v>
-      </c>
-      <c r="EA4">
-        <v>1</v>
+      <c r="DX4" s="3">
+        <v>189</v>
+      </c>
+      <c r="DY4" s="3">
+        <v>169</v>
+      </c>
+      <c r="DZ4" s="3">
+        <v>153</v>
+      </c>
+      <c r="EA4" s="3">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:131" x14ac:dyDescent="0.2">
@@ -4953,350 +4960,350 @@
       <c r="P5" t="s">
         <v>141</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="3">
+        <v>20</v>
+      </c>
+      <c r="R5" s="3">
+        <v>23</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3">
+        <v>34</v>
+      </c>
+      <c r="V5" s="3">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>19</v>
+      </c>
+      <c r="X5" s="3">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>14</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>34</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>47</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>14</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>19</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>35</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="3">
+        <v>25</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>27</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>46</v>
+      </c>
+      <c r="AU5" s="3">
+        <v>48</v>
+      </c>
+      <c r="AV5" s="3">
+        <v>45</v>
+      </c>
+      <c r="AW5" s="3">
+        <v>29</v>
+      </c>
+      <c r="AX5" s="3">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>34</v>
+      </c>
+      <c r="AZ5" s="3">
+        <v>27</v>
+      </c>
+      <c r="BA5" s="3">
+        <v>26</v>
+      </c>
+      <c r="BB5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="3">
+        <v>34</v>
+      </c>
+      <c r="BD5" s="3">
+        <v>13</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>15</v>
+      </c>
+      <c r="BF5" s="3">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="3">
+        <v>39</v>
+      </c>
+      <c r="BH5" s="3">
+        <v>16</v>
+      </c>
+      <c r="BI5" s="3">
+        <v>33</v>
+      </c>
+      <c r="BJ5" s="3">
+        <v>8</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>16</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>38</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>37</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>21</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>34</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>50</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>3</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>35</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>38</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>4</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>4</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>47</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>42</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>23</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>22</v>
+      </c>
+      <c r="CA5" s="3">
+        <v>16</v>
+      </c>
+      <c r="CB5" s="3">
+        <v>6</v>
+      </c>
+      <c r="CC5" s="3">
+        <v>39</v>
+      </c>
+      <c r="CD5" s="3">
+        <v>21</v>
+      </c>
+      <c r="CE5" s="3">
+        <v>10</v>
+      </c>
+      <c r="CF5" s="3">
+        <v>45</v>
+      </c>
+      <c r="CG5" s="3">
+        <v>11</v>
+      </c>
+      <c r="CH5" s="3">
+        <v>31</v>
+      </c>
+      <c r="CI5" s="3">
+        <v>43</v>
+      </c>
+      <c r="CJ5" s="3">
         <v>32</v>
       </c>
-      <c r="R5">
+      <c r="CK5" s="3">
+        <v>24</v>
+      </c>
+      <c r="CL5" s="3">
+        <v>33</v>
+      </c>
+      <c r="CM5" s="3">
+        <v>40</v>
+      </c>
+      <c r="CN5" s="3">
+        <v>47</v>
+      </c>
+      <c r="CO5" s="3">
+        <v>32</v>
+      </c>
+      <c r="CP5" s="3">
+        <v>19</v>
+      </c>
+      <c r="CQ5" s="3">
+        <v>3</v>
+      </c>
+      <c r="CR5" s="3">
+        <v>27</v>
+      </c>
+      <c r="CS5" s="3">
+        <v>43</v>
+      </c>
+      <c r="CT5" s="3">
+        <v>5</v>
+      </c>
+      <c r="CU5" s="3">
+        <v>49</v>
+      </c>
+      <c r="CV5" s="3">
+        <v>7</v>
+      </c>
+      <c r="CW5" s="3">
+        <v>20</v>
+      </c>
+      <c r="CX5" s="3">
         <v>45</v>
       </c>
-      <c r="S5">
-        <v>27</v>
-      </c>
-      <c r="T5">
-        <v>16</v>
-      </c>
-      <c r="U5">
+      <c r="CY5" s="3">
+        <v>7</v>
+      </c>
+      <c r="CZ5" s="3">
+        <v>33</v>
+      </c>
+      <c r="DA5" s="3">
+        <v>44</v>
+      </c>
+      <c r="DB5" s="3">
+        <v>2</v>
+      </c>
+      <c r="DC5" s="3">
+        <v>34</v>
+      </c>
+      <c r="DD5" s="3">
+        <v>10</v>
+      </c>
+      <c r="DE5" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="DG5" s="3">
+        <v>193</v>
+      </c>
+      <c r="DH5" s="3">
+        <v>169</v>
+      </c>
+      <c r="DI5" s="3">
+        <v>49</v>
+      </c>
+      <c r="DJ5" s="3">
+        <v>171</v>
+      </c>
+      <c r="DK5" s="3">
+        <v>115</v>
+      </c>
+      <c r="DL5" s="3">
+        <v>71</v>
+      </c>
+      <c r="DM5" s="3">
+        <v>141</v>
+      </c>
+      <c r="DN5" s="3">
+        <v>114</v>
+      </c>
+      <c r="DO5" s="3">
+        <v>32</v>
+      </c>
+      <c r="DP5" s="3">
+        <v>112</v>
+      </c>
+      <c r="DQ5" s="3">
+        <v>200</v>
+      </c>
+      <c r="DR5" s="3">
+        <v>32</v>
+      </c>
+      <c r="DS5" s="3">
         <v>14</v>
       </c>
-      <c r="V5">
+      <c r="DT5" s="3">
+        <v>96</v>
+      </c>
+      <c r="DU5" s="3">
+        <v>156</v>
+      </c>
+      <c r="DV5" s="3">
+        <v>62</v>
+      </c>
+      <c r="DW5" s="3">
+        <v>52</v>
+      </c>
+      <c r="DX5" s="3">
         <v>50</v>
       </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>19</v>
-      </c>
-      <c r="Y5">
-        <v>22</v>
-      </c>
-      <c r="Z5">
-        <v>34</v>
-      </c>
-      <c r="AA5">
-        <v>50</v>
-      </c>
-      <c r="AB5">
-        <v>25</v>
-      </c>
-      <c r="AC5">
-        <v>14</v>
-      </c>
-      <c r="AD5">
-        <v>32</v>
-      </c>
-      <c r="AE5">
-        <v>48</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>34</v>
-      </c>
-      <c r="AH5">
-        <v>14</v>
-      </c>
-      <c r="AI5">
-        <v>21</v>
-      </c>
-      <c r="AJ5">
-        <v>28</v>
-      </c>
-      <c r="AK5">
-        <v>39</v>
-      </c>
-      <c r="AL5">
-        <v>5</v>
-      </c>
-      <c r="AM5">
-        <v>20</v>
-      </c>
-      <c r="AN5">
-        <v>49</v>
-      </c>
-      <c r="AO5">
-        <v>33</v>
-      </c>
-      <c r="AP5">
-        <v>13</v>
-      </c>
-      <c r="AQ5">
-        <v>39</v>
-      </c>
-      <c r="AR5">
-        <v>26</v>
-      </c>
-      <c r="AS5">
-        <v>31</v>
-      </c>
-      <c r="AT5">
-        <v>13</v>
-      </c>
-      <c r="AU5">
-        <v>22</v>
-      </c>
-      <c r="AV5">
-        <v>7</v>
-      </c>
-      <c r="AW5">
-        <v>41</v>
-      </c>
-      <c r="AX5">
-        <v>4</v>
-      </c>
-      <c r="AY5">
-        <v>1</v>
-      </c>
-      <c r="AZ5">
-        <v>41</v>
-      </c>
-      <c r="BA5">
-        <v>15</v>
-      </c>
-      <c r="BB5">
-        <v>45</v>
-      </c>
-      <c r="BC5">
-        <v>14</v>
-      </c>
-      <c r="BD5">
-        <v>50</v>
-      </c>
-      <c r="BE5">
-        <v>32</v>
-      </c>
-      <c r="BF5">
-        <v>29</v>
-      </c>
-      <c r="BG5">
-        <v>30</v>
-      </c>
-      <c r="BH5">
-        <v>50</v>
-      </c>
-      <c r="BI5">
-        <v>12</v>
-      </c>
-      <c r="BJ5">
-        <v>38</v>
-      </c>
-      <c r="BK5">
-        <v>31</v>
-      </c>
-      <c r="BL5">
-        <v>35</v>
-      </c>
-      <c r="BM5">
-        <v>31</v>
-      </c>
-      <c r="BN5">
-        <v>9</v>
-      </c>
-      <c r="BO5">
-        <v>5</v>
-      </c>
-      <c r="BP5">
-        <v>32</v>
-      </c>
-      <c r="BQ5">
-        <v>43</v>
-      </c>
-      <c r="BR5">
-        <v>30</v>
-      </c>
-      <c r="BS5">
-        <v>8</v>
-      </c>
-      <c r="BT5">
-        <v>37</v>
-      </c>
-      <c r="BU5">
-        <v>27</v>
-      </c>
-      <c r="BV5">
-        <v>14</v>
-      </c>
-      <c r="BW5">
-        <v>6</v>
-      </c>
-      <c r="BX5">
-        <v>6</v>
-      </c>
-      <c r="BY5">
-        <v>4</v>
-      </c>
-      <c r="BZ5">
-        <v>8</v>
-      </c>
-      <c r="CA5">
-        <v>3</v>
-      </c>
-      <c r="CB5">
-        <v>32</v>
-      </c>
-      <c r="CC5">
-        <v>31</v>
-      </c>
-      <c r="CD5">
-        <v>4</v>
-      </c>
-      <c r="CE5">
-        <v>30</v>
-      </c>
-      <c r="CF5">
-        <v>24</v>
-      </c>
-      <c r="CG5">
-        <v>47</v>
-      </c>
-      <c r="CH5">
-        <v>38</v>
-      </c>
-      <c r="CI5">
-        <v>42</v>
-      </c>
-      <c r="CJ5">
-        <v>20</v>
-      </c>
-      <c r="CK5">
-        <v>37</v>
-      </c>
-      <c r="CL5">
-        <v>41</v>
-      </c>
-      <c r="CM5">
-        <v>22</v>
-      </c>
-      <c r="CN5">
-        <v>46</v>
-      </c>
-      <c r="CO5">
-        <v>18</v>
-      </c>
-      <c r="CP5">
-        <v>26</v>
-      </c>
-      <c r="CQ5">
-        <v>12</v>
-      </c>
-      <c r="CR5">
-        <v>40</v>
-      </c>
-      <c r="CS5">
-        <v>30</v>
-      </c>
-      <c r="CT5">
-        <v>27</v>
-      </c>
-      <c r="CU5">
-        <v>24</v>
-      </c>
-      <c r="CV5">
-        <v>20</v>
-      </c>
-      <c r="CW5">
-        <v>40</v>
-      </c>
-      <c r="CX5">
-        <v>48</v>
-      </c>
-      <c r="CY5">
-        <v>46</v>
-      </c>
-      <c r="CZ5">
-        <v>14</v>
-      </c>
-      <c r="DA5">
-        <v>9</v>
-      </c>
-      <c r="DB5">
-        <v>39</v>
-      </c>
-      <c r="DC5">
-        <v>29</v>
-      </c>
-      <c r="DD5">
-        <v>26</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DF5">
-        <v>0.01</v>
-      </c>
-      <c r="DG5">
-        <v>82</v>
-      </c>
-      <c r="DH5">
-        <v>63</v>
-      </c>
-      <c r="DI5">
-        <v>82</v>
-      </c>
-      <c r="DJ5">
-        <v>200</v>
-      </c>
-      <c r="DK5">
-        <v>108</v>
-      </c>
-      <c r="DL5">
-        <v>89</v>
-      </c>
-      <c r="DM5">
-        <v>113</v>
-      </c>
-      <c r="DN5">
-        <v>115</v>
-      </c>
-      <c r="DO5">
-        <v>113</v>
-      </c>
-      <c r="DP5">
-        <v>110</v>
-      </c>
-      <c r="DQ5">
-        <v>75</v>
-      </c>
-      <c r="DR5">
-        <v>134</v>
-      </c>
-      <c r="DS5">
-        <v>27</v>
-      </c>
-      <c r="DT5">
-        <v>133</v>
-      </c>
-      <c r="DU5">
-        <v>129</v>
-      </c>
-      <c r="DV5">
-        <v>72</v>
-      </c>
-      <c r="DW5">
-        <v>156</v>
-      </c>
-      <c r="DX5">
-        <v>41</v>
-      </c>
-      <c r="DY5">
-        <v>60</v>
-      </c>
-      <c r="DZ5">
-        <v>155</v>
-      </c>
-      <c r="EA5">
-        <v>12</v>
+      <c r="DY5" s="3">
+        <v>77</v>
+      </c>
+      <c r="DZ5" s="3">
+        <v>96</v>
+      </c>
+      <c r="EA5" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
